--- a/src/querryRunner/stores/exportstore.xlsx
+++ b/src/querryRunner/stores/exportstore.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5975" uniqueCount="2195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6029" uniqueCount="2223">
   <si>
     <t>Store_ID</t>
   </si>
@@ -6618,6 +6618,90 @@
   </si>
   <si>
     <t>executive_00006 ,executive_00003 , executive_00008</t>
+  </si>
+  <si>
+    <t>executive_00012 , executive_00015 ,executive_00003 , executive_00019</t>
+  </si>
+  <si>
+    <t>Shubhanshu , Avneesh ,Vikash Dubey , Ashutosh</t>
+  </si>
+  <si>
+    <t>Croma -Dehradun-Rajpur Road</t>
+  </si>
+  <si>
+    <t>Croma -Dehradun-Mall of Dehradun</t>
+  </si>
+  <si>
+    <t>Croma -Haridwar-Ranipur Mod</t>
+  </si>
+  <si>
+    <t>Croma -Dehradun-Chakrata road</t>
+  </si>
+  <si>
+    <t>Croma -Dehradun-Saharanpur Road</t>
+  </si>
+  <si>
+    <t>Dehradun</t>
+  </si>
+  <si>
+    <t>Haridwar</t>
+  </si>
+  <si>
+    <t>store_001009</t>
+  </si>
+  <si>
+    <t>store_001010</t>
+  </si>
+  <si>
+    <t>store_001011</t>
+  </si>
+  <si>
+    <t>store_001012</t>
+  </si>
+  <si>
+    <t>store_001013</t>
+  </si>
+  <si>
+    <t>executive_00020 , executive_00007</t>
+  </si>
+  <si>
+    <t>Suraj , Ayush</t>
+  </si>
+  <si>
+    <t>Croma -Bhubaneswar-Janpath Road</t>
+  </si>
+  <si>
+    <t>Croma -Cuttack-College Square</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croma -Bhubaneswar-Patia </t>
+  </si>
+  <si>
+    <t>Croma -Bhubaneswar-Lewis Road</t>
+  </si>
+  <si>
+    <t>Bhubaneswar</t>
+  </si>
+  <si>
+    <t>Cuttack</t>
+  </si>
+  <si>
+    <t>store_001014</t>
+  </si>
+  <si>
+    <t>store_001015</t>
+  </si>
+  <si>
+    <t>store_001016</t>
+  </si>
+  <si>
+    <t>store_001017</t>
+  </si>
+  <si>
+    <t>Geet , Vikash Dubey</t>
+  </si>
+  <si>
+    <t>executive_00021 ,executive_00003</t>
   </si>
 </sst>
 </file>
@@ -7017,9 +7101,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1009"/>
+  <dimension ref="A1:F1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1006" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F1015" sqref="F1015"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -21445,10 +21531,10 @@
         <v>823</v>
       </c>
       <c r="E717" s="4" t="s">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="F717" s="4" t="s">
-        <v>2172</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="718" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -21465,10 +21551,10 @@
         <v>823</v>
       </c>
       <c r="E718" s="4" t="s">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="F718" s="4" t="s">
-        <v>2172</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="719" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -21485,10 +21571,10 @@
         <v>823</v>
       </c>
       <c r="E719" s="4" t="s">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="F719" s="4" t="s">
-        <v>2172</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="720" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -21505,10 +21591,10 @@
         <v>823</v>
       </c>
       <c r="E720" s="4" t="s">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="F720" s="4" t="s">
-        <v>2172</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="721" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -21525,10 +21611,10 @@
         <v>823</v>
       </c>
       <c r="E721" s="4" t="s">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="F721" s="4" t="s">
-        <v>2172</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="722" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -21545,10 +21631,10 @@
         <v>823</v>
       </c>
       <c r="E722" s="4" t="s">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="F722" s="4" t="s">
-        <v>2172</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="723" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -21565,10 +21651,10 @@
         <v>823</v>
       </c>
       <c r="E723" s="4" t="s">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="F723" s="4" t="s">
-        <v>2172</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="724" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -21585,10 +21671,10 @@
         <v>823</v>
       </c>
       <c r="E724" s="4" t="s">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="F724" s="4" t="s">
-        <v>2172</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="725" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -21605,10 +21691,10 @@
         <v>823</v>
       </c>
       <c r="E725" s="4" t="s">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="F725" s="4" t="s">
-        <v>2172</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="726" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -21625,10 +21711,10 @@
         <v>823</v>
       </c>
       <c r="E726" s="4" t="s">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="F726" s="4" t="s">
-        <v>2172</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="727" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -21645,10 +21731,10 @@
         <v>823</v>
       </c>
       <c r="E727" s="4" t="s">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="F727" s="4" t="s">
-        <v>2172</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="728" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -21665,10 +21751,10 @@
         <v>823</v>
       </c>
       <c r="E728" s="4" t="s">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="F728" s="4" t="s">
-        <v>2172</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="729" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -21685,10 +21771,10 @@
         <v>823</v>
       </c>
       <c r="E729" s="4" t="s">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="F729" s="4" t="s">
-        <v>2172</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="730" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -21705,10 +21791,10 @@
         <v>823</v>
       </c>
       <c r="E730" s="4" t="s">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="F730" s="4" t="s">
-        <v>2172</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="731" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -21725,10 +21811,10 @@
         <v>823</v>
       </c>
       <c r="E731" s="4" t="s">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="F731" s="4" t="s">
-        <v>2172</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="732" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -21745,10 +21831,10 @@
         <v>823</v>
       </c>
       <c r="E732" s="4" t="s">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="F732" s="4" t="s">
-        <v>2172</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="733" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -21765,10 +21851,10 @@
         <v>823</v>
       </c>
       <c r="E733" s="4" t="s">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="F733" s="4" t="s">
-        <v>2172</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="734" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -21785,10 +21871,10 @@
         <v>823</v>
       </c>
       <c r="E734" s="4" t="s">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="F734" s="4" t="s">
-        <v>2172</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="735" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -21805,10 +21891,10 @@
         <v>823</v>
       </c>
       <c r="E735" s="4" t="s">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="F735" s="4" t="s">
-        <v>2172</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="736" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -21825,10 +21911,10 @@
         <v>823</v>
       </c>
       <c r="E736" s="4" t="s">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="F736" s="4" t="s">
-        <v>2172</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="737" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -21845,10 +21931,10 @@
         <v>823</v>
       </c>
       <c r="E737" s="4" t="s">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="F737" s="4" t="s">
-        <v>2172</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="738" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -21865,10 +21951,10 @@
         <v>823</v>
       </c>
       <c r="E738" s="4" t="s">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="F738" s="4" t="s">
-        <v>2172</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="739" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -21885,10 +21971,10 @@
         <v>823</v>
       </c>
       <c r="E739" s="4" t="s">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="F739" s="4" t="s">
-        <v>2172</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="740" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -21905,10 +21991,10 @@
         <v>823</v>
       </c>
       <c r="E740" s="4" t="s">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="F740" s="4" t="s">
-        <v>2172</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="741" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -21925,10 +22011,10 @@
         <v>823</v>
       </c>
       <c r="E741" s="4" t="s">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="F741" s="4" t="s">
-        <v>2172</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="742" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -21945,10 +22031,10 @@
         <v>823</v>
       </c>
       <c r="E742" s="4" t="s">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="F742" s="4" t="s">
-        <v>2172</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="743" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -21965,10 +22051,10 @@
         <v>823</v>
       </c>
       <c r="E743" s="4" t="s">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="F743" s="4" t="s">
-        <v>2172</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="744" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -21985,10 +22071,10 @@
         <v>823</v>
       </c>
       <c r="E744" s="4" t="s">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="F744" s="4" t="s">
-        <v>2172</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="745" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -22005,10 +22091,10 @@
         <v>823</v>
       </c>
       <c r="E745" s="4" t="s">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="F745" s="4" t="s">
-        <v>2172</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="746" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -22025,10 +22111,10 @@
         <v>823</v>
       </c>
       <c r="E746" s="4" t="s">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="F746" s="4" t="s">
-        <v>2172</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="747" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -22045,10 +22131,10 @@
         <v>823</v>
       </c>
       <c r="E747" s="4" t="s">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="F747" s="4" t="s">
-        <v>2172</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="748" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -22065,10 +22151,10 @@
         <v>823</v>
       </c>
       <c r="E748" s="4" t="s">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="F748" s="4" t="s">
-        <v>2172</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="749" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -22085,10 +22171,10 @@
         <v>823</v>
       </c>
       <c r="E749" s="4" t="s">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="F749" s="4" t="s">
-        <v>2172</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="750" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -27289,6 +27375,186 @@
       </c>
       <c r="F1009" s="4" t="s">
         <v>2168</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1010" s="4" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B1010" s="2" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C1010" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D1010" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1010" s="4" t="s">
+        <v>2209</v>
+      </c>
+      <c r="F1010" s="2" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1011" s="4" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B1011" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C1011" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D1011" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1011" s="4" t="s">
+        <v>2209</v>
+      </c>
+      <c r="F1011" s="2" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1012" s="4" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B1012" s="2" t="s">
+        <v>2199</v>
+      </c>
+      <c r="C1012" s="2" t="s">
+        <v>2203</v>
+      </c>
+      <c r="D1012" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1012" s="4" t="s">
+        <v>2209</v>
+      </c>
+      <c r="F1012" s="2" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1013" s="4" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B1013" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C1013" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D1013" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1013" s="4" t="s">
+        <v>2209</v>
+      </c>
+      <c r="F1013" s="2" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1014" s="4" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B1014" s="2" t="s">
+        <v>2201</v>
+      </c>
+      <c r="C1014" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D1014" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1014" s="4" t="s">
+        <v>2209</v>
+      </c>
+      <c r="F1014" s="2" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1015" s="4" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B1015" s="2" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C1015" s="2" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D1015" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1015" s="4" t="s">
+        <v>2222</v>
+      </c>
+      <c r="F1015" s="2" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1016" s="4" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B1016" s="2" t="s">
+        <v>2212</v>
+      </c>
+      <c r="C1016" s="2" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D1016" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1016" s="4" t="s">
+        <v>2222</v>
+      </c>
+      <c r="F1016" s="2" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1017" s="4" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B1017" s="2" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C1017" s="2" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D1017" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1017" s="4" t="s">
+        <v>2222</v>
+      </c>
+      <c r="F1017" s="2" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1018" s="4" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B1018" s="2" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C1018" s="2" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D1018" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1018" s="4" t="s">
+        <v>2222</v>
+      </c>
+      <c r="F1018" s="2" t="s">
+        <v>2221</v>
       </c>
     </row>
   </sheetData>

--- a/src/querryRunner/stores/exportstore.xlsx
+++ b/src/querryRunner/stores/exportstore.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6029" uniqueCount="2223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6329" uniqueCount="2361">
   <si>
     <t>Store_ID</t>
   </si>
@@ -6702,6 +6702,420 @@
   </si>
   <si>
     <t>executive_00021 ,executive_00003</t>
+  </si>
+  <si>
+    <t>Croma -Chhatrapati Sambhaji Nagar-Prozone Mall</t>
+  </si>
+  <si>
+    <t>Croma -Nashik-Solitario</t>
+  </si>
+  <si>
+    <t>Croma -Baramati-Bhigwan Road</t>
+  </si>
+  <si>
+    <t>Croma -Chhatrapati Sambhaji Nagar-Waluj</t>
+  </si>
+  <si>
+    <t>Croma -Nashik-Nashik Road</t>
+  </si>
+  <si>
+    <t>Croma -Raipur-VIP Chowk</t>
+  </si>
+  <si>
+    <t>Croma -Bilaspur-Srikant Verma Marg</t>
+  </si>
+  <si>
+    <t>Croma -Solapur-Murarji Peth</t>
+  </si>
+  <si>
+    <t>Croma -Latur-Ambejogai Road</t>
+  </si>
+  <si>
+    <t>Croma -Amravati-Badnera Road</t>
+  </si>
+  <si>
+    <t>Croma -Bhilai-Supela</t>
+  </si>
+  <si>
+    <t>Croma -Akola-Kirti Nagar</t>
+  </si>
+  <si>
+    <t>Croma -Ahmednagar-Kohinoor Mall</t>
+  </si>
+  <si>
+    <t>Croma -Nashik-Pathardi Phata</t>
+  </si>
+  <si>
+    <t>Croma -Raipur-GE Road</t>
+  </si>
+  <si>
+    <t>Croma -Chandrapur-Nagpur Road</t>
+  </si>
+  <si>
+    <t>Croma -Nagpur-Wardha Road</t>
+  </si>
+  <si>
+    <t>Croma -Jalna-Old Mondha</t>
+  </si>
+  <si>
+    <t>Croma -Rajnandgaon-Basantpur Road</t>
+  </si>
+  <si>
+    <t>Croma -Ichalkranjii-Fortune Plaza II</t>
+  </si>
+  <si>
+    <t>Croma -Solapur-Hotgi Road</t>
+  </si>
+  <si>
+    <t>Croma -Miraj-Vantmure Corner</t>
+  </si>
+  <si>
+    <t>Croma -Chhatrapati Sambhaji Nagar-Jalna Road</t>
+  </si>
+  <si>
+    <t>Croma -Beed-Shivaji Maharaj Chowk</t>
+  </si>
+  <si>
+    <t>Croma -Nashik-Dindori Road</t>
+  </si>
+  <si>
+    <t>Croma -Nashik-Gangapur Road</t>
+  </si>
+  <si>
+    <t>Croma -Raipur-Bhatagaon</t>
+  </si>
+  <si>
+    <t>Croma -Durg-Station Road</t>
+  </si>
+  <si>
+    <t>Croma -Korba-Transport Nagar</t>
+  </si>
+  <si>
+    <t>Croma -Nagpur-Manish Nagar</t>
+  </si>
+  <si>
+    <t>Croma -Nanded-ITI Road</t>
+  </si>
+  <si>
+    <t>Croma -Nagpur-Ganeshpeth</t>
+  </si>
+  <si>
+    <t>Croma -Pune-Kothrud 2</t>
+  </si>
+  <si>
+    <t>Croma -Bilaspur-Sarkanada</t>
+  </si>
+  <si>
+    <t>Croma -Ratnagiri-Arihant Mall</t>
+  </si>
+  <si>
+    <t>Croma -Sangamner-College Road</t>
+  </si>
+  <si>
+    <t>Croma -Nashik-Govind Nagar</t>
+  </si>
+  <si>
+    <t>Croma -Machilipatnam-Ramanaidupet</t>
+  </si>
+  <si>
+    <t>Croma -Erode-Perundurai Road</t>
+  </si>
+  <si>
+    <t>Croma -Chennai-Tambaram West</t>
+  </si>
+  <si>
+    <t>Croma -Sangli-Ram Mandir Chowk</t>
+  </si>
+  <si>
+    <t>Croma -Shahad-Kalyan Ahmednagar Highway</t>
+  </si>
+  <si>
+    <t>Croma -Ranchi-Kanke Road</t>
+  </si>
+  <si>
+    <t>Croma -Kolhapur -Station Road</t>
+  </si>
+  <si>
+    <t>Croma -Chhatrapati Sambhaji Nagar-Beed Bypass Road</t>
+  </si>
+  <si>
+    <t>Croma -Raipur-Pandri</t>
+  </si>
+  <si>
+    <t>Croma -Thane-Teen Hath Naka</t>
+  </si>
+  <si>
+    <t>Croma -Delhi-Airport Terminal 1 D</t>
+  </si>
+  <si>
+    <t>Croma -Guwahati ? Lokhara</t>
+  </si>
+  <si>
+    <t>Croma -Ghaziabad-Ambedkar Road</t>
+  </si>
+  <si>
+    <t>Chhatrapati Sambhaji Nagar</t>
+  </si>
+  <si>
+    <t>Nashik</t>
+  </si>
+  <si>
+    <t>Baramati</t>
+  </si>
+  <si>
+    <t>Raipur</t>
+  </si>
+  <si>
+    <t>Bilaspur</t>
+  </si>
+  <si>
+    <t>Solapur</t>
+  </si>
+  <si>
+    <t>Latur</t>
+  </si>
+  <si>
+    <t>AMRAVATI</t>
+  </si>
+  <si>
+    <t>Bhilai</t>
+  </si>
+  <si>
+    <t>Akola</t>
+  </si>
+  <si>
+    <t>Ahmednagar</t>
+  </si>
+  <si>
+    <t>Chandrapur</t>
+  </si>
+  <si>
+    <t>Nagpur</t>
+  </si>
+  <si>
+    <t>Jalna</t>
+  </si>
+  <si>
+    <t>Rajnandgaon</t>
+  </si>
+  <si>
+    <t>Ichalkranjii</t>
+  </si>
+  <si>
+    <t>Miraj</t>
+  </si>
+  <si>
+    <t>Beed</t>
+  </si>
+  <si>
+    <t>Durg</t>
+  </si>
+  <si>
+    <t>Korba</t>
+  </si>
+  <si>
+    <t>Nanded</t>
+  </si>
+  <si>
+    <t>Ratnagiri</t>
+  </si>
+  <si>
+    <t>Sangamner</t>
+  </si>
+  <si>
+    <t>Machilipatnam</t>
+  </si>
+  <si>
+    <t>Erode</t>
+  </si>
+  <si>
+    <t>Sangli</t>
+  </si>
+  <si>
+    <t>Shahad</t>
+  </si>
+  <si>
+    <t>Ranchi</t>
+  </si>
+  <si>
+    <t>Kolhapur</t>
+  </si>
+  <si>
+    <t>Vikash dubey</t>
+  </si>
+  <si>
+    <t>Ayush , Vikash Dubey</t>
+  </si>
+  <si>
+    <t>Kanishk , Vikash Dubey</t>
+  </si>
+  <si>
+    <t>Rushikesh , Soham , Vikash Dubey</t>
+  </si>
+  <si>
+    <t>Sanjay , Vikash Dubey</t>
+  </si>
+  <si>
+    <t>Soham , Vikash Dubey</t>
+  </si>
+  <si>
+    <t>executive_00002 ,executive_00003</t>
+  </si>
+  <si>
+    <t>executive_00003</t>
+  </si>
+  <si>
+    <t>executive_00016 ,executive_00003</t>
+  </si>
+  <si>
+    <t>store_001018</t>
+  </si>
+  <si>
+    <t>store_001019</t>
+  </si>
+  <si>
+    <t>store_001020</t>
+  </si>
+  <si>
+    <t>store_001021</t>
+  </si>
+  <si>
+    <t>store_001022</t>
+  </si>
+  <si>
+    <t>store_001023</t>
+  </si>
+  <si>
+    <t>store_001024</t>
+  </si>
+  <si>
+    <t>store_001025</t>
+  </si>
+  <si>
+    <t>store_001026</t>
+  </si>
+  <si>
+    <t>store_001027</t>
+  </si>
+  <si>
+    <t>store_001028</t>
+  </si>
+  <si>
+    <t>store_001029</t>
+  </si>
+  <si>
+    <t>store_001030</t>
+  </si>
+  <si>
+    <t>store_001031</t>
+  </si>
+  <si>
+    <t>store_001032</t>
+  </si>
+  <si>
+    <t>store_001033</t>
+  </si>
+  <si>
+    <t>store_001034</t>
+  </si>
+  <si>
+    <t>store_001035</t>
+  </si>
+  <si>
+    <t>store_001036</t>
+  </si>
+  <si>
+    <t>store_001037</t>
+  </si>
+  <si>
+    <t>store_001038</t>
+  </si>
+  <si>
+    <t>store_001039</t>
+  </si>
+  <si>
+    <t>store_001040</t>
+  </si>
+  <si>
+    <t>store_001041</t>
+  </si>
+  <si>
+    <t>store_001042</t>
+  </si>
+  <si>
+    <t>store_001043</t>
+  </si>
+  <si>
+    <t>store_001044</t>
+  </si>
+  <si>
+    <t>store_001045</t>
+  </si>
+  <si>
+    <t>store_001046</t>
+  </si>
+  <si>
+    <t>store_001047</t>
+  </si>
+  <si>
+    <t>store_001048</t>
+  </si>
+  <si>
+    <t>store_001049</t>
+  </si>
+  <si>
+    <t>store_001050</t>
+  </si>
+  <si>
+    <t>store_001051</t>
+  </si>
+  <si>
+    <t>store_001052</t>
+  </si>
+  <si>
+    <t>store_001053</t>
+  </si>
+  <si>
+    <t>store_001054</t>
+  </si>
+  <si>
+    <t>store_001055</t>
+  </si>
+  <si>
+    <t>store_001056</t>
+  </si>
+  <si>
+    <t>store_001057</t>
+  </si>
+  <si>
+    <t>store_001058</t>
+  </si>
+  <si>
+    <t>store_001059</t>
+  </si>
+  <si>
+    <t>store_001060</t>
+  </si>
+  <si>
+    <t>store_001061</t>
+  </si>
+  <si>
+    <t>store_001062</t>
+  </si>
+  <si>
+    <t>store_001063</t>
+  </si>
+  <si>
+    <t>store_001064</t>
+  </si>
+  <si>
+    <t>store_001065</t>
+  </si>
+  <si>
+    <t>store_001066</t>
+  </si>
+  <si>
+    <t>store_001067</t>
   </si>
 </sst>
 </file>
@@ -7101,17 +7515,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1018"/>
+  <dimension ref="A1:F1068"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1006" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F1015" sqref="F1015"/>
+    <sheetView tabSelected="1" topLeftCell="A1055" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B1068" sqref="B1068"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.08984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="38.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.453125" style="1" bestFit="1" customWidth="1"/>
@@ -27557,6 +27971,1006 @@
         <v>2221</v>
       </c>
     </row>
+    <row r="1019" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1019" s="4" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B1019" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="C1019" s="2" t="s">
+        <v>2273</v>
+      </c>
+      <c r="D1019" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1019" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1019" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1020" s="4" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B1020" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C1020" s="2" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D1020" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1020" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1020" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1021" s="4" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B1021" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C1021" s="2" t="s">
+        <v>2275</v>
+      </c>
+      <c r="D1021" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1021" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1021" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1022" s="4" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B1022" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C1022" s="2" t="s">
+        <v>2273</v>
+      </c>
+      <c r="D1022" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1022" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1022" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1023" s="4" t="s">
+        <v>2315</v>
+      </c>
+      <c r="B1023" s="2" t="s">
+        <v>2227</v>
+      </c>
+      <c r="C1023" s="2" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D1023" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1023" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1023" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1024" s="4" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B1024" s="2" t="s">
+        <v>2228</v>
+      </c>
+      <c r="C1024" s="2" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D1024" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1024" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F1024" s="2" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1025" s="4" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B1025" s="2" t="s">
+        <v>2229</v>
+      </c>
+      <c r="C1025" s="2" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D1025" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1025" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F1025" s="2" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1026" s="4" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B1026" s="2" t="s">
+        <v>2230</v>
+      </c>
+      <c r="C1026" s="2" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D1026" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1026" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1026" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1027" s="4" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B1027" s="2" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C1027" s="2" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D1027" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1027" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1027" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1028" s="4" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B1028" s="2" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C1028" s="2" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D1028" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1028" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1028" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1029" s="4" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B1029" s="2" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C1029" s="2" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D1029" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1029" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F1029" s="2" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1030" s="4" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B1030" s="2" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C1030" s="2" t="s">
+        <v>2282</v>
+      </c>
+      <c r="D1030" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1030" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1030" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1031" s="4" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B1031" s="2" t="s">
+        <v>2235</v>
+      </c>
+      <c r="C1031" s="2" t="s">
+        <v>2283</v>
+      </c>
+      <c r="D1031" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1031" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1031" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1032" s="4" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B1032" s="2" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C1032" s="2" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D1032" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1032" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1032" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1033" s="4" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B1033" s="2" t="s">
+        <v>2237</v>
+      </c>
+      <c r="C1033" s="2" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D1033" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1033" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F1033" s="2" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1034" s="4" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B1034" s="2" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C1034" s="2" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D1034" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1034" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1034" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1035" s="4" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B1035" s="2" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C1035" s="2" t="s">
+        <v>2285</v>
+      </c>
+      <c r="D1035" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1035" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1035" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1036" s="4" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B1036" s="2" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C1036" s="2" t="s">
+        <v>2286</v>
+      </c>
+      <c r="D1036" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1036" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1036" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1037" s="4" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B1037" s="2" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C1037" s="2" t="s">
+        <v>2287</v>
+      </c>
+      <c r="D1037" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1037" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F1037" s="2" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1038" s="4" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B1038" s="2" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C1038" s="2" t="s">
+        <v>2288</v>
+      </c>
+      <c r="D1038" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1038" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1038" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1039" s="4" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B1039" s="2" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C1039" s="2" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D1039" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1039" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1039" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1040" s="4" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B1040" s="2" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C1040" s="2" t="s">
+        <v>2289</v>
+      </c>
+      <c r="D1040" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1040" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1040" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1041" s="4" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B1041" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1041" s="2" t="s">
+        <v>2273</v>
+      </c>
+      <c r="D1041" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1041" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1041" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1042" s="4" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B1042" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C1042" s="2" t="s">
+        <v>2290</v>
+      </c>
+      <c r="D1042" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1042" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1042" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1043" s="4" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B1043" s="2" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C1043" s="2" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D1043" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1043" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1043" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1044" s="4" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B1044" s="2" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C1044" s="2" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D1044" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1044" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1044" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1045" s="4" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B1045" s="2" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C1045" s="2" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D1045" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1045" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F1045" s="2" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1046" s="4" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B1046" s="2" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C1046" s="2" t="s">
+        <v>2291</v>
+      </c>
+      <c r="D1046" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1046" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F1046" s="2" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1047" s="4" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B1047" s="2" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C1047" s="2" t="s">
+        <v>2292</v>
+      </c>
+      <c r="D1047" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1047" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F1047" s="2" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1048" s="4" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B1048" s="2" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C1048" s="2" t="s">
+        <v>2285</v>
+      </c>
+      <c r="D1048" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1048" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1048" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1049" s="4" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B1049" s="2" t="s">
+        <v>2253</v>
+      </c>
+      <c r="C1049" s="2" t="s">
+        <v>2293</v>
+      </c>
+      <c r="D1049" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1049" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1049" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1050" s="4" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B1050" s="2" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C1050" s="2" t="s">
+        <v>2285</v>
+      </c>
+      <c r="D1050" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1050" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1050" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1051" s="4" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B1051" s="2" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C1051" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1051" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1051" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1051" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1052" s="4" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B1052" s="2" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C1052" s="2" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D1052" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1052" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F1052" s="2" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1053" s="4" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B1053" s="2" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C1053" s="2" t="s">
+        <v>2294</v>
+      </c>
+      <c r="D1053" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1053" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1053" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1054" s="4" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B1054" s="2" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C1054" s="2" t="s">
+        <v>2295</v>
+      </c>
+      <c r="D1054" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1054" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1054" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1055" s="4" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B1055" s="2" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C1055" s="2" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D1055" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1055" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1055" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1056" s="4" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B1056" s="2" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C1056" s="2" t="s">
+        <v>2296</v>
+      </c>
+      <c r="D1056" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1056" s="2" t="s">
+        <v>2309</v>
+      </c>
+      <c r="F1056" s="2" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1057" s="4" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B1057" s="2" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C1057" s="2" t="s">
+        <v>2297</v>
+      </c>
+      <c r="D1057" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1057" s="2" t="s">
+        <v>2309</v>
+      </c>
+      <c r="F1057" s="2" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1058" s="4" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B1058" s="2" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C1058" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D1058" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1058" s="2" t="s">
+        <v>2309</v>
+      </c>
+      <c r="F1058" s="2" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1059" s="4" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B1059" s="2" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C1059" s="2" t="s">
+        <v>2298</v>
+      </c>
+      <c r="D1059" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1059" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1059" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1060" s="4" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B1060" s="2" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C1060" s="2" t="s">
+        <v>2299</v>
+      </c>
+      <c r="D1060" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1060" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1060" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1061" s="4" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B1061" s="2" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C1061" s="2" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D1061" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1061" s="2" t="s">
+        <v>2310</v>
+      </c>
+      <c r="F1061" s="2" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1062" s="4" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B1062" s="2" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C1062" s="2" t="s">
+        <v>2301</v>
+      </c>
+      <c r="D1062" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1062" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1062" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1063" s="4" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B1063" s="2" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C1063" s="2" t="s">
+        <v>2273</v>
+      </c>
+      <c r="D1063" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1063" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1063" s="2" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1064" s="4" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B1064" s="2" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C1064" s="2" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D1064" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1064" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F1064" s="2" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1065" s="4" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B1065" s="2" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C1065" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1065" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1065" s="2" t="s">
+        <v>2175</v>
+      </c>
+      <c r="F1065" s="2" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1066" s="4" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B1066" s="2" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C1066" s="2" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D1066" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1066" s="2" t="s">
+        <v>2178</v>
+      </c>
+      <c r="F1066" s="2" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1067" s="4" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B1067" s="2" t="s">
+        <v>2271</v>
+      </c>
+      <c r="C1067" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1067" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1067" s="2" t="s">
+        <v>2310</v>
+      </c>
+      <c r="F1067" s="2" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1068" s="4" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B1068" s="2" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C1068" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="D1068" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1068" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F1068" s="2" t="s">
+        <v>2304</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A80">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
